--- a/Tables/exp_arms.xlsx
+++ b/Tables/exp_arms.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xps-seira\Dropbox\Apps\ShareLaTeX\Donde 2019\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Documents\SEIRA\donde2019\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D414D835-F417-4EE7-A07B-B866BB767C9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB9CCB0-7871-40AA-9D28-630AA6FF4482}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{47361F37-7346-447C-B942-BB91466DC8E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{47361F37-7346-447C-B942-BB91466DC8E5}"/>
   </bookViews>
   <sheets>
     <sheet name="exp_arms" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">exp_arms!$A$1:$E$7</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +26,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,10 +44,10 @@
     <t>Fee</t>
   </si>
   <si>
-    <t>No Fee</t>
+    <t>Control</t>
   </si>
   <si>
-    <t>Control</t>
+    <t>Promise</t>
   </si>
 </sst>
 </file>
@@ -81,7 +83,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -92,7 +94,72 @@
     <border>
       <left/>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -106,9 +173,57 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -117,9 +232,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -130,61 +243,11 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
         <color indexed="64"/>
       </left>
       <right/>
@@ -194,186 +257,63 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -396,16 +336,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>13855</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8842</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>11257</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>575832</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>184439</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>576513</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>195513</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -420,8 +360,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4281055" y="1500621"/>
-          <a:ext cx="1171577" cy="356754"/>
+          <a:off x="3362645" y="1384862"/>
+          <a:ext cx="1179276" cy="384783"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -474,16 +414,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9522</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>13855</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4509</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>566486</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>193236</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -498,8 +438,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4276722" y="1129146"/>
-          <a:ext cx="1171577" cy="349827"/>
+          <a:off x="3358312" y="977567"/>
+          <a:ext cx="1173582" cy="388748"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -552,15 +492,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>138113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>528636</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -616,15 +556,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>528636</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -682,7 +622,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -978,164 +918,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5DD533-5204-420F-8403-FC827585B082}">
-  <dimension ref="D4:J16"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="190" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="16"/>
     </row>
-    <row r="5" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="13">
+        <v>2484</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="12">
+        <v>3089</v>
+      </c>
     </row>
-    <row r="6" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="3"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="3"/>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="18">
+        <v>347</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
-    <row r="7" spans="4:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="3"/>
-      <c r="E7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="11">
-        <v>2484</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="21">
-        <v>3089</v>
-      </c>
-      <c r="J7" s="3"/>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2156</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="3">
+        <v>1909</v>
+      </c>
     </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D8" s="3"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="20">
-        <v>347</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="3"/>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="18">
+        <v>859</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D9" s="3"/>
-      <c r="E9" s="9" t="s">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="13">
-        <v>2157</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="21">
-        <v>1909</v>
-      </c>
-      <c r="J9" s="3"/>
+      <c r="B7" s="5">
+        <v>2601</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
-    <row r="10" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="3"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="22">
-        <v>859</v>
-      </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="3"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="3"/>
-      <c r="E13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2601</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Tables/exp_arms.xlsx
+++ b/Tables/exp_arms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Documents\SEIRA\donde2019\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xps-seira\Dropbox\Apps\ShareLaTeX\Donde2019\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB9CCB0-7871-40AA-9D28-630AA6FF4482}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62343C5F-41D1-439F-80B0-ABE167D78815}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{47361F37-7346-447C-B942-BB91466DC8E5}"/>
+    <workbookView xWindow="-13872" yWindow="-13068" windowWidth="23256" windowHeight="13176" xr2:uid="{47361F37-7346-447C-B942-BB91466DC8E5}"/>
   </bookViews>
   <sheets>
     <sheet name="exp_arms" sheetId="1" r:id="rId1"/>
@@ -273,18 +273,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -294,25 +309,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -618,11 +618,72 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>18950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>271463</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>51436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1941BC29-D561-473B-91EA-9FBBA382265F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2171700" y="1533425"/>
+          <a:ext cx="4338638" cy="1842236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -920,93 +981,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5DD533-5204-420F-8403-FC827585B082}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="190" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="160" zoomScaleNormal="190" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5"/>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="17">
         <v>2484</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="12">
-        <v>3089</v>
+      <c r="C2" s="18"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6">
+        <v>3088</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="18">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="8">
         <v>347</v>
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13">
-        <v>2156</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="17"/>
+      <c r="B4" s="17">
+        <v>2157</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="3">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="18">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="8">
         <v>859</v>
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="9">
         <v>2601</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>

--- a/Tables/exp_arms.xlsx
+++ b/Tables/exp_arms.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96CCB9A-07A5-46ED-860D-99375B1D8B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22155" yWindow="-5535" windowWidth="13245" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22155" yWindow="-5535" windowWidth="13245" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="exp_arms" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -88,19 +88,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.5999938962981"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -137,39 +137,39 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -488,19 +488,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDDCAD2-19B6-4E14-AFEE-A572D35A857A}">
   <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="true"/>
     <col min="7" max="7" width="8.7265625" style="1"/>
-    <col min="8" max="8" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.36328125" style="1" bestFit="true" customWidth="true"/>
     <col min="9" max="11" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" ht="15" thickBot="true" x14ac:dyDescent="0.4">
       <c r="F1" s="5"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -508,7 +508,7 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="2:11" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" ht="27" customHeight="true" thickTop="true" thickBot="true" x14ac:dyDescent="0.4">
       <c r="F2" s="5"/>
       <c r="G2" s="11"/>
       <c r="H2" s="10" t="s">
@@ -520,7 +520,7 @@
       </c>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="2:11" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" ht="30" thickTop="true" thickBot="true" x14ac:dyDescent="0.4">
       <c r="F3" s="6"/>
       <c r="G3" s="8" t="s">
         <v>3</v>
@@ -538,7 +538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="4" ht="29.5" thickTop="true" x14ac:dyDescent="0.35">
       <c r="F4" s="7" t="s">
         <v>0</v>
       </c>
@@ -563,7 +563,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" ht="26.5" customHeight="true" x14ac:dyDescent="0.35">
       <c r="F5" s="2" t="s">
         <v>1</v>
       </c>
@@ -588,7 +588,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" ht="29.5" thickBot="true" x14ac:dyDescent="0.4">
       <c r="F6" s="12" t="s">
         <v>2</v>
       </c>
@@ -613,23 +613,23 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="7" ht="15" thickTop="true" x14ac:dyDescent="0.35"/>
+    <row r="9" x14ac:dyDescent="0.35">
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="10" x14ac:dyDescent="0.35">
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="11" x14ac:dyDescent="0.35">
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="12" x14ac:dyDescent="0.35">
       <c r="C12" s="6"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="14" x14ac:dyDescent="0.35">
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="15" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>2585</v>
       </c>
@@ -648,21 +648,21 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="16" x14ac:dyDescent="0.35">
       <c r="B16">
-        <v>2036</v>
+        <v>2585</v>
       </c>
       <c r="C16">
-        <v>1907</v>
+        <v>2465</v>
       </c>
       <c r="D16">
-        <v>1757</v>
+        <v>2143</v>
       </c>
       <c r="E16">
-        <v>2710</v>
+        <v>3406</v>
       </c>
       <c r="F16">
-        <v>2216</v>
+        <v>2753</v>
       </c>
       <c r="G16" s="1">
         <v>6919</v>
@@ -670,25 +670,43 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" x14ac:dyDescent="0.35">
       <c r="B17">
+        <v>2036</v>
+      </c>
+      <c r="C17">
+        <v>1907</v>
+      </c>
+      <c r="D17">
+        <v>1757</v>
+      </c>
+      <c r="E17">
+        <v>2710</v>
+      </c>
+      <c r="F17">
+        <v>2216</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6919</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" x14ac:dyDescent="0.35">
+      <c r="B18">
         <v>1984</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>1840</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>1724</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>2634</v>
       </c>
-      <c r="F17">
-        <v>2186</v>
-      </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>2185</v>
+      </c>
       <c r="H18" s="3"/>
     </row>
   </sheetData>
